--- a/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-static/2_pruning_metrics.xlsx
+++ b/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-static/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.699</v>
+        <v>0.66</v>
       </c>
       <c r="C4" t="n">
-        <v>0.309</v>
+        <v>0.293</v>
       </c>
       <c r="D4" t="n">
-        <v>-55.79</v>
+        <v>-55.61</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.699</v>
+        <v>0.661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.277</v>
+        <v>0.259</v>
       </c>
       <c r="D5" t="n">
-        <v>-60.37</v>
+        <v>-60.82</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.702</v>
+        <v>0.668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.295</v>
+        <v>0.252</v>
       </c>
       <c r="D6" t="n">
-        <v>-57.98</v>
+        <v>-62.28</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.317592970095575</v>
+        <v>2.178300595493056</v>
       </c>
       <c r="C4" t="n">
-        <v>1.648682717321208</v>
+        <v>1.909469907870516</v>
       </c>
       <c r="D4" t="n">
-        <v>-28.86</v>
+        <v>-12.34</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2943226786122497</v>
+        <v>0.1033174145771188</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2284085866102888</v>
+        <v>0.07827761524096367</v>
       </c>
       <c r="G4" t="n">
-        <v>-22.4</v>
+        <v>-24.24</v>
       </c>
     </row>
     <row r="5">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.378</v>
+        <v>42.903</v>
       </c>
       <c r="C5" t="n">
-        <v>0.105</v>
+        <v>6.606</v>
       </c>
       <c r="D5" t="n">
-        <v>-99.76000000000001</v>
+        <v>-84.59999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.37925486128146</v>
+        <v>14.71082290097376</v>
       </c>
       <c r="C6" t="n">
-        <v>21.22410025786045</v>
+        <v>17.26361036696534</v>
       </c>
       <c r="D6" t="n">
-        <v>47.6</v>
+        <v>17.35</v>
       </c>
       <c r="E6" t="n">
-        <v>3.480268622064374</v>
+        <v>0.6756905073938032</v>
       </c>
       <c r="F6" t="n">
-        <v>10.09002302008417</v>
+        <v>0.6826839870837145</v>
       </c>
       <c r="G6" t="n">
-        <v>189.92</v>
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-static/2_pruning_metrics.xlsx
+++ b/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-static/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
